--- a/詳細設計/画面遷移図.xlsx
+++ b/詳細設計/画面遷移図.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="表紙" sheetId="2" r:id="rId1"/>
+    <sheet name="画面遷移図1" sheetId="1" r:id="rId2"/>
+    <sheet name="画面遷移図2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>画面遷移図</t>
     <rPh sb="0" eb="5">
@@ -80,11 +82,139 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目次ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>モクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日：6月10日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社〇〇〇様</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英単語テストアプリ</t>
+    <rPh sb="0" eb="3">
+      <t>エイタンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新履歴</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンリレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>版数・リビジョン</t>
+    <rPh sb="0" eb="2">
+      <t>ハンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成・更新日</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改版理由・箇所</t>
+    <rPh sb="0" eb="2">
+      <t>カイハン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rev 1.00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初版作成</t>
+    <rPh sb="0" eb="4">
+      <t>ショハンサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移図1の続き</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OK</t>
+    <t>＊次のページ</t>
+    <rPh sb="1" eb="2">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOPページへ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -92,7 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +244,34 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -181,12 +339,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,13 +394,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -277,13 +453,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -328,279 +504,11 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2659380" y="838200"/>
-          <a:ext cx="1219200" cy="335280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>新規登録画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3878580" y="1005840"/>
-          <a:ext cx="609600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6926580" y="838200"/>
-          <a:ext cx="1828800" cy="335280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>新規登録確認画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8755380" y="1005840"/>
-          <a:ext cx="609600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9364980" y="830580"/>
-          <a:ext cx="1828800" cy="335280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>新規登録完了画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -643,13 +551,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -698,13 +606,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -747,15 +655,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -765,7 +673,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="830580" y="3352800"/>
+          <a:off x="2049780" y="3855720"/>
           <a:ext cx="1219200" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -807,15 +715,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -827,7 +735,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1440180" y="3688080"/>
+          <a:off x="2659380" y="4191000"/>
           <a:ext cx="0" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -856,15 +764,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -874,7 +782,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="830580" y="4023360"/>
+          <a:off x="2049780" y="4526280"/>
           <a:ext cx="1219200" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -911,28 +819,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1440180" y="2849880"/>
-          <a:ext cx="1661160" cy="502920"/>
+          <a:off x="2659380" y="2849880"/>
+          <a:ext cx="0" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -960,15 +866,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -978,7 +884,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2659380" y="3352800"/>
+          <a:off x="3878580" y="3855720"/>
           <a:ext cx="1219200" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1015,15 +921,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1033,7 +939,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3268980" y="3688080"/>
+          <a:off x="4488180" y="4191000"/>
           <a:ext cx="0" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1062,15 +968,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1080,7 +986,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2659380" y="4023360"/>
+          <a:off x="3878580" y="4526280"/>
           <a:ext cx="1219200" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1117,15 +1023,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1137,7 +1043,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1440180" y="4358640"/>
+          <a:off x="2659380" y="4861560"/>
           <a:ext cx="609600" cy="670560"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1166,15 +1072,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1186,7 +1092,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2019300" y="4358640"/>
+          <a:off x="3238500" y="4861560"/>
           <a:ext cx="1249680" cy="670560"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1215,16 +1121,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1233,7 +1139,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1440180" y="5021580"/>
+          <a:off x="2659380" y="5532120"/>
           <a:ext cx="1219200" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1270,16 +1176,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1290,7 +1196,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2049780" y="5356860"/>
+          <a:off x="3268980" y="5867400"/>
           <a:ext cx="0" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1319,16 +1225,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1337,7 +1243,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1440180" y="5669280"/>
+          <a:off x="2659380" y="6210300"/>
           <a:ext cx="1219200" cy="670560"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -1375,66 +1281,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="3"/>
-          <a:endCxn id="38" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11193780" y="998220"/>
-          <a:ext cx="609600" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1443,8 +1299,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11803380" y="1348740"/>
-          <a:ext cx="1219200" cy="670560"/>
+          <a:off x="13022580" y="1676400"/>
+          <a:ext cx="617220" cy="670560"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -1481,13 +1337,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1530,13 +1386,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1585,13 +1441,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1634,13 +1490,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1689,15 +1545,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1705,12 +1561,13 @@
         <xdr:cNvPr id="51" name="直線矢印コネクタ 50"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="49" idx="3"/>
+          <a:endCxn id="38" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10584180" y="1676400"/>
-          <a:ext cx="1219200" cy="0"/>
+          <a:off x="11803380" y="1676400"/>
+          <a:ext cx="1219200" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1738,13 +1595,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1793,13 +1650,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1842,13 +1699,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1891,13 +1748,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
@@ -1946,13 +1803,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1993,13 +1850,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2048,13 +1905,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2069,8 +1926,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10584180" y="1684020"/>
-          <a:ext cx="1219200" cy="662940"/>
+          <a:off x="11803380" y="2011680"/>
+          <a:ext cx="1219200" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2098,209 +1955,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="フローチャート: 判断 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4488180" y="685800"/>
-          <a:ext cx="1828800" cy="670560"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>すべて入力</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6316980" y="1005840"/>
-          <a:ext cx="609600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線コネクタ 29"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3268980" y="670560"/>
-          <a:ext cx="2133600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線矢印コネクタ 41"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3268980" y="670560"/>
-          <a:ext cx="0" cy="167640"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2311,8 +1973,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="525780" y="2179320"/>
-          <a:ext cx="1828800" cy="670560"/>
+          <a:off x="2049780" y="2202180"/>
+          <a:ext cx="1219200" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -2348,27 +2010,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="55" name="直線矢印コネクタ 54"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1440180" y="2849880"/>
+          <a:off x="2659380" y="3352800"/>
           <a:ext cx="0" cy="502920"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2397,28 +2057,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="67" name="直線矢印コネクタ 66"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="3"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2049780" y="1676400"/>
-          <a:ext cx="304800" cy="838200"/>
+        <a:xfrm flipV="1">
+          <a:off x="2667000" y="1859280"/>
+          <a:ext cx="0" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2442,6 +2100,1549 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1440180" y="5699760"/>
+          <a:ext cx="1219200" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1440180" y="1005840"/>
+          <a:ext cx="0" cy="4693920"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1440180" y="1005840"/>
+          <a:ext cx="609600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2049780" y="3185160"/>
+          <a:ext cx="1219200" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>目次画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2659380" y="3520440"/>
+          <a:ext cx="1828800" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線コネクタ 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3878580" y="5699760"/>
+          <a:ext cx="1828800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線コネクタ 64"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5707380" y="3352800"/>
+          <a:ext cx="0" cy="2346960"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線矢印コネクタ 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3268980" y="3352800"/>
+          <a:ext cx="2438400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3878580" y="838200"/>
+          <a:ext cx="1219200" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線コネクタ 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11193780" y="2514600"/>
+          <a:ext cx="0" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3878580" y="2682240"/>
+          <a:ext cx="7315200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直線矢印コネクタ 73"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2659380" y="1844040"/>
+          <a:ext cx="1219200" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直線コネクタ 75"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11193780" y="502920"/>
+          <a:ext cx="0" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線コネクタ 77"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3268980" y="502920"/>
+          <a:ext cx="7924800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直線矢印コネクタ 79"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2659380" y="502920"/>
+          <a:ext cx="609600" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="502920"/>
+          <a:ext cx="1219200" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="1181100"/>
+          <a:ext cx="1219200" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規登録画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 判断 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="1851660"/>
+          <a:ext cx="1219200" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>すべて入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="3185160"/>
+          <a:ext cx="1874520" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規登録確認画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="3855720"/>
+          <a:ext cx="1828800" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規登録完了画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="838200"/>
+          <a:ext cx="0" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="1516380"/>
+          <a:ext cx="0" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="2857500"/>
+          <a:ext cx="0" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="3520440"/>
+          <a:ext cx="0" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="4191000"/>
+          <a:ext cx="0" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="フローチャート: 磁気ディスク 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="4526280"/>
+          <a:ext cx="1028700" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線コネクタ 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="2346960"/>
+          <a:ext cx="609600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4876800" y="1341120"/>
+          <a:ext cx="0" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4267200" y="1341120"/>
+          <a:ext cx="609600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="4023360"/>
+          <a:ext cx="1219200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="3855720"/>
+          <a:ext cx="1219200" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2710,10 +3911,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="23.4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="41.4" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6">
+        <v>45453</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S35"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2721,19 +4105,19 @@
     <col min="1" max="1" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2741,11 +4125,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2753,26 +4137,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G4" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K6" t="s">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="R17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E14" t="s">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="G35" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2787,4 +4181,31 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>